--- a/DestroyViruses/Assets/Tables/TableShop.xlsx
+++ b/DestroyViruses/Assets/Tables/TableShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="10280"/>
+    <workbookView windowWidth="21800" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>productID</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
   <si>
     <t>nameID</t>
@@ -58,52 +61,63 @@
     <t>名称</t>
   </si>
   <si>
+    <t>图片</t>
+  </si>
+  <si>
     <t>名称多语言</t>
   </si>
   <si>
     <t>描述多语言</t>
   </si>
   <si>
-    <t>Consumable</t>
-  </si>
-  <si>
-    <t>钻石数量</t>
-  </si>
-  <si>
-    <t>额外获得</t>
+    <t>Consumable = 0
+NonConsumable = 1
+Subscription = 2</t>
+  </si>
+  <si>
+    <t>钻石数量（对应到Store奖励数量）</t>
+  </si>
+  <si>
+    <t>额外获得（游戏内额外给予）</t>
   </si>
   <si>
     <t>钻1</t>
   </si>
   <si>
-    <t>fc614c6ba5174283bd45ab1741b3448c</t>
+    <t>100.gold.coins</t>
+  </si>
+  <si>
+    <t>shop_diamond_1</t>
   </si>
   <si>
     <t>钻2</t>
   </si>
   <si>
+    <t>300.gold.coins</t>
+  </si>
+  <si>
+    <t>shop_diamond_2</t>
+  </si>
+  <si>
     <t>钻3</t>
   </si>
   <si>
-    <t>46fd6257364441f8b202ea80b2b68975</t>
+    <t>500.gold.coins</t>
+  </si>
+  <si>
+    <t>shop_diamond_3</t>
   </si>
   <si>
     <t>钻4</t>
   </si>
   <si>
-    <t>e344ad66951849e484c81ccda88b83c4</t>
+    <t>shop_diamond_4</t>
   </si>
   <si>
     <t>钻5</t>
   </si>
   <si>
-    <t>fc8739cdaac24b1fa934984f779bd3cb</t>
-  </si>
-  <si>
-    <t>钻6</t>
-  </si>
-  <si>
-    <t>77978e6fc26f4a68b3e9dcab8ccdc334</t>
+    <t>shop_diamond_5</t>
   </si>
 </sst>
 </file>
@@ -111,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -132,7 +146,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,7 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,26 +189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,6 +205,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -202,12 +223,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -215,38 +267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,7 +276,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,14 +284,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,25 +304,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,73 +454,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,73 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +489,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,6 +540,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,35 +562,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,151 +580,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,24 +1091,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="19.3942307692308" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="5" width="45" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.2115384615385" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.4615384615385" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="6" width="45" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.2115384615385" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.4615384615385" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1119,210 +1133,211 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
         <v>100</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
         <v>200</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>200</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
         <v>500</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>500</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2">
         <v>1000</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>1000</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>288</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:8">
+    <row r="8" ht="15" customHeight="1" spans="1:9">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2">
         <v>2000</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>2000</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1888</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableShop.xlsx
+++ b/DestroyViruses/Assets/Tables/TableShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="10880"/>
+    <workbookView windowWidth="26055" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -33,6 +33,9 @@
     <t>nameID</t>
   </si>
   <si>
+    <t>priceID</t>
+  </si>
+  <si>
     <t>descriptionID</t>
   </si>
   <si>
@@ -45,10 +48,10 @@
     <t>extra</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>ID</t>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>名称多语言</t>
+  </si>
+  <si>
+    <t>价格对应多语言</t>
   </si>
   <si>
     <t>描述多语言</t>
@@ -90,6 +96,9 @@
     <t>shop_diamond_1</t>
   </si>
   <si>
+    <t>$1</t>
+  </si>
+  <si>
     <t>钻2</t>
   </si>
   <si>
@@ -99,6 +108,9 @@
     <t>shop_diamond_2</t>
   </si>
   <si>
+    <t>$10</t>
+  </si>
+  <si>
     <t>钻3</t>
   </si>
   <si>
@@ -108,16 +120,31 @@
     <t>shop_diamond_3</t>
   </si>
   <si>
+    <t>$20</t>
+  </si>
+  <si>
     <t>钻4</t>
   </si>
   <si>
+    <t>1000.gold.coins</t>
+  </si>
+  <si>
     <t>shop_diamond_4</t>
   </si>
   <si>
+    <t>$30</t>
+  </si>
+  <si>
     <t>钻5</t>
   </si>
   <si>
+    <t>2000.gold.coins</t>
+  </si>
+  <si>
     <t>shop_diamond_5</t>
+  </si>
+  <si>
+    <t>$50</t>
   </si>
 </sst>
 </file>
@@ -125,10 +152,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -146,21 +173,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,116 +285,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,25 +325,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,157 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,73 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,216 +546,282 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1089,26 +1117,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="19.3942307692308" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.3916666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="6" width="45" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.2115384615385" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.4615384615385" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="3" max="7" width="45" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.2083333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.4583333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1136,28 +1164,31 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
@@ -1165,178 +1196,199 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
         <v>100</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="2">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2">
         <v>200</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G5" s="2">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>200</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2">
         <v>500</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G6" s="2">
+        <v>500</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>500</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
         <v>1000</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>1000</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>288</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:9">
+    <row r="8" ht="15" customHeight="1" spans="1:10">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2">
         <v>2000</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>2000</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>588</v>
       </c>
     </row>
@@ -1348,7 +1400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1356,7 +1408,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1364,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1372,7 +1424,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableShop.xlsx
+++ b/DestroyViruses/Assets/Tables/TableShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26055" windowHeight="11730"/>
+    <workbookView windowWidth="21800" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>id</t>
   </si>
@@ -96,7 +96,7 @@
     <t>shop_diamond_1</t>
   </si>
   <si>
-    <t>$1</t>
+    <t>$0.99</t>
   </si>
   <si>
     <t>钻2</t>
@@ -108,7 +108,7 @@
     <t>shop_diamond_2</t>
   </si>
   <si>
-    <t>$10</t>
+    <t>$4.99</t>
   </si>
   <si>
     <t>钻3</t>
@@ -120,7 +120,7 @@
     <t>shop_diamond_3</t>
   </si>
   <si>
-    <t>$20</t>
+    <t>$9.99</t>
   </si>
   <si>
     <t>钻4</t>
@@ -132,7 +132,7 @@
     <t>shop_diamond_4</t>
   </si>
   <si>
-    <t>$30</t>
+    <t>$19.99</t>
   </si>
   <si>
     <t>钻5</t>
@@ -144,7 +144,7 @@
     <t>shop_diamond_5</t>
   </si>
   <si>
-    <t>$50</t>
+    <t>$39.99</t>
   </si>
 </sst>
 </file>
@@ -152,10 +152,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -173,6 +173,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -180,23 +195,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,53 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,46 +234,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,19 +325,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,163 +451,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,8 +522,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,41 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -592,175 +616,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -774,54 +774,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1117,21 +1117,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="19.3916666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.3942307692308" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="7" width="45" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.2083333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.4583333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.2115384615385" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.4615384615385" style="2" customWidth="1"/>
     <col min="10" max="10" width="19.875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
@@ -1246,7 +1246,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>25</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1278,7 +1278,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>29</v>
@@ -1290,10 +1290,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J5" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1310,7 +1310,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>33</v>
@@ -1322,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J6" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1342,7 +1342,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="2">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J7" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:10">
@@ -1374,7 +1374,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="2">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>41</v>
@@ -1386,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="J8" s="2">
-        <v>588</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1408,7 +1408,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1416,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1424,7 +1424,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableShop.xlsx
+++ b/DestroyViruses/Assets/Tables/TableShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="10880"/>
+    <workbookView windowWidth="25200" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>钻1</t>
   </si>
   <si>
-    <t>100.gold.coins</t>
+    <t>pss099</t>
   </si>
   <si>
     <t>shop_diamond_1</t>
@@ -102,7 +102,7 @@
     <t>钻2</t>
   </si>
   <si>
-    <t>300.gold.coins</t>
+    <t>pss499</t>
   </si>
   <si>
     <t>shop_diamond_2</t>
@@ -114,7 +114,7 @@
     <t>钻3</t>
   </si>
   <si>
-    <t>500.gold.coins</t>
+    <t>pss999</t>
   </si>
   <si>
     <t>shop_diamond_3</t>
@@ -126,7 +126,7 @@
     <t>钻4</t>
   </si>
   <si>
-    <t>1000.gold.coins</t>
+    <t>pss1999</t>
   </si>
   <si>
     <t>shop_diamond_4</t>
@@ -138,7 +138,7 @@
     <t>钻5</t>
   </si>
   <si>
-    <t>2000.gold.coins</t>
+    <t>pss3999</t>
   </si>
   <si>
     <t>shop_diamond_5</t>
@@ -154,8 +154,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -179,21 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -209,6 +194,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -217,8 +233,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,85 +302,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,91 +325,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,91 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,26 +532,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -572,6 +552,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,6 +578,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,163 +616,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1121,8 +1121,8 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>

--- a/DestroyViruses/Assets/Tables/TableShop.xlsx
+++ b/DestroyViruses/Assets/Tables/TableShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="10880"/>
+    <workbookView windowWidth="25200" windowHeight="10280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>id</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>$39.99</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>pssweekly199</t>
+  </si>
+  <si>
+    <t>$1.99</t>
   </si>
 </sst>
 </file>
@@ -152,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -180,9 +189,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,17 +219,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,61 +280,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,31 +334,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,151 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,22 +541,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,26 +585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -616,161 +599,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1119,13 +1131,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="19.3942307692308" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
@@ -1390,6 +1402,35 @@
       </c>
       <c r="J8" s="2">
         <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableShop.xlsx
+++ b/DestroyViruses/Assets/Tables/TableShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="10280"/>
+    <workbookView windowWidth="28800" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>id</t>
   </si>
@@ -96,7 +96,10 @@
     <t>shop_diamond_1</t>
   </si>
   <si>
-    <t>$0.99</t>
+    <t>Shop_01</t>
+  </si>
+  <si>
+    <t>Shop_price1</t>
   </si>
   <si>
     <t>钻2</t>
@@ -108,7 +111,10 @@
     <t>shop_diamond_2</t>
   </si>
   <si>
-    <t>$4.99</t>
+    <t>Shop_02</t>
+  </si>
+  <si>
+    <t>Shop_price2</t>
   </si>
   <si>
     <t>钻3</t>
@@ -120,7 +126,10 @@
     <t>shop_diamond_3</t>
   </si>
   <si>
-    <t>$9.99</t>
+    <t>Shop_03</t>
+  </si>
+  <si>
+    <t>Shop_price3</t>
   </si>
   <si>
     <t>钻4</t>
@@ -132,7 +141,10 @@
     <t>shop_diamond_4</t>
   </si>
   <si>
-    <t>$19.99</t>
+    <t>Shop_04</t>
+  </si>
+  <si>
+    <t>Shop_price4</t>
   </si>
   <si>
     <t>钻5</t>
@@ -144,7 +156,10 @@
     <t>shop_diamond_5</t>
   </si>
   <si>
-    <t>$39.99</t>
+    <t>Shop_05</t>
+  </si>
+  <si>
+    <t>Shop_price5</t>
   </si>
   <si>
     <t>VIP</t>
@@ -153,7 +168,10 @@
     <t>pssweekly199</t>
   </si>
   <si>
-    <t>$1.99</t>
+    <t>Shop_vip</t>
+  </si>
+  <si>
+    <t>Shop_vip_price</t>
   </si>
 </sst>
 </file>
@@ -161,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -189,6 +207,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -196,7 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,13 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -241,9 +259,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,67 +299,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,25 +352,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,157 +478,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,16 +574,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +599,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,172 +630,161 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1133,8 +1151,8 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1257,15 +1275,13 @@
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2">
-        <v>60</v>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2">
-        <v>100</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2">
         <v>0</v>
       </c>
@@ -1281,23 +1297,21 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2">
-        <v>300</v>
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2">
-        <v>200</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2">
         <v>0</v>
       </c>
@@ -1313,23 +1327,21 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2">
-        <v>600</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2">
-        <v>500</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2">
         <v>0</v>
       </c>
@@ -1345,23 +1357,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1200</v>
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1000</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2">
         <v>0</v>
       </c>
@@ -1377,23 +1387,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2400</v>
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2000</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2">
         <v>0</v>
       </c>
@@ -1409,20 +1417,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="2">
         <v>2</v>
       </c>
